--- a/Buncee/src/test/TestData/test_data.xlsx
+++ b/Buncee/src/test/TestData/test_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tariq\IdeaProjects\Amazon\Buncee\src\test\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tariq\Dropbox\Amazon\Buncee\src\test\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE41F5E-5470-4914-A31F-2A10E07EC1C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2220E9A8-D1E1-4D2B-A587-192A3BBFCDFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,10 +68,10 @@
     <t>Begum</t>
   </si>
   <si>
-    <t>MD</t>
-  </si>
-  <si>
     <t>Alam</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
